--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit.sharepoint.com/sites/GISPython2-Group-3/Documents partages/Group-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montaine\Desktop\Cours HES-SO\GitHub\HEVS_S8_GIS_Camping\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{3ED9D134-B52A-4D3E-B990-9A36C919CC66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A653A7EB-4464-429A-8AC0-02316754CFA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DDFFC7-D0E5-4A0C-BA88-66E935EC948B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="1368" windowWidth="15516" windowHeight="9804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>US N.</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Be able to see empty slots on the map</t>
   </si>
   <si>
-    <t>The empty slots are displayed diffrently then the busy ones</t>
-  </si>
-  <si>
     <t>to see slots (maximum 2-3 slots) that are next to eachother</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve"> The empty slots can filtered by this criteria (user is suggested the nearest avalable slot)</t>
-  </si>
-  <si>
-    <t>to seeslots that are nearest to trees</t>
   </si>
   <si>
     <t>Camping manager</t>
@@ -118,7 +112,23 @@
     <t>User from the application</t>
   </si>
   <si>
-    <t>After clicking on an empty the manager can add the informations from the campers :  N° of adults, N° of kids and N° of pets</t>
+    <t>Assign to</t>
+  </si>
+  <si>
+    <t>Nghi</t>
+  </si>
+  <si>
+    <t>to seeslots that are including trees</t>
+  </si>
+  <si>
+    <t>Montaine</t>
+  </si>
+  <si>
+    <t>To accept a reservation</t>
+  </si>
+  <si>
+    <t>The empty slots are displayed diffrently then the busy ones
+(red tents for occupied / yellow tents for reserved)</t>
   </si>
 </sst>
 </file>
@@ -212,7 +222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -346,7 +362,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -373,9 +388,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -405,11 +417,39 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <font>
         <b val="0"/>
@@ -501,6 +541,24 @@
         <color rgb="FFB7B7B7"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -653,14 +711,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44DE9AB7-DDFD-461D-9DB9-4A4BB04F12F1}" name="Tableau6" displayName="Tableau6" ref="A1:E10" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:E9" xr:uid="{1211AA54-4F16-46F9-8C0E-8C6AF6C32004}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CAF777EB-6A7F-40F7-9B3E-11B2CA25127C}" name="US N." totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{27DB78B3-D6B2-495F-A134-9D9244EFB10F}" name="As a/an ..." dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{70ED5132-7FDC-4EA8-986C-A03C94EE3521}" name="I want to ..." dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{23B6EFB6-0758-4B5D-838C-81C3B16868C5}" name="Acceptance criteria" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{6EDF4E13-587D-42FA-8D8C-98313A594426}" name="Status" dataDxfId="5" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44DE9AB7-DDFD-461D-9DB9-4A4BB04F12F1}" name="Tableau6" displayName="Tableau6" ref="A1:F10" totalsRowCount="1" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:F9" xr:uid="{1211AA54-4F16-46F9-8C0E-8C6AF6C32004}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CAF777EB-6A7F-40F7-9B3E-11B2CA25127C}" name="US N." totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{27DB78B3-D6B2-495F-A134-9D9244EFB10F}" name="As a/an ..." dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{70ED5132-7FDC-4EA8-986C-A03C94EE3521}" name="I want to ..." dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{23B6EFB6-0758-4B5D-838C-81C3B16868C5}" name="Acceptance criteria" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6EDF4E13-587D-42FA-8D8C-98313A594426}" name="Status" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{509E7F9B-B2DF-412C-AD38-B6B51E70E28D}" name="Assign to" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -966,10 +1025,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:XFD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,185 +1038,204 @@
     <col min="3" max="3" width="57.5546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="73" style="9" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="14.44140625" hidden="1"/>
+    <col min="16" max="16383" width="14.44140625" hidden="1"/>
+    <col min="16384" max="16384" width="6.5546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" s="26" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34">
+      <c r="F1" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="34">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="D4" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="34">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29" t="s">
+      <c r="D5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="B6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
+      <c r="D6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="C7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="36" t="s">
+      <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34">
-        <v>7</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
-        <v>8</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="16"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="10"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="10"/>
       <c r="F13" s="12"/>
     </row>
@@ -1204,7 +1282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="iconSet" priority="64">
+    <cfRule type="iconSet" priority="82">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1213,14 +1291,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E8">
-    <cfRule type="iconSet" priority="66">
+    <cfRule type="iconSet" priority="84">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="67">
+    <cfRule type="iconSet" priority="85">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -1230,14 +1308,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E8">
-    <cfRule type="iconSet" priority="70">
+    <cfRule type="iconSet" priority="88">
       <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="71">
+    <cfRule type="iconSet" priority="89">
       <iconSet iconSet="4TrafficLights" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -1286,13 +1364,13 @@
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1332,13 +1410,13 @@
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1381,10 +1459,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2987,21 +3065,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081BE93E7ADFCA44ABC37A8196A20EF6C" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a88d7810283389e387c8f42efea5eed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7adb4e8b-d300-4cd5-9a58-d1eb454a1459" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="463fee123a721f521717f4a1814532ae" ns2:_="">
     <xsd:import namespace="7adb4e8b-d300-4cd5-9a58-d1eb454a1459"/>
@@ -3159,17 +3222,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ABCF23C-177F-48BB-9CA6-65AE8594433C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BFF3465-087F-4714-8438-774159F301C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7adb4e8b-d300-4cd5-9a58-d1eb454a1459"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3183,5 +3264,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BFF3465-087F-4714-8438-774159F301C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ABCF23C-177F-48BB-9CA6-65AE8594433C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montaine\Desktop\Cours HES-SO\GitHub\HEVS_S8_GIS_Camping\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DDFFC7-D0E5-4A0C-BA88-66E935EC948B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4B7347-D80D-4079-860A-DD7F5F60C2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,13 +1025,13 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:XFD13"/>
+  <dimension ref="A1:XFC13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -1044,7 +1044,7 @@
     <col min="16384" max="16384" width="6.5546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="26" customFormat="1" ht="13.8">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="41" customFormat="1">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.8">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="45" customFormat="1" ht="28.8">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="19" customFormat="1">
       <c r="A7" s="32">
         <v>6</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="19" customFormat="1">
       <c r="A8" s="32">
         <v>7</v>
       </c>
@@ -1183,12 +1183,14 @@
       <c r="D8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="30">
+        <v>3</v>
+      </c>
       <c r="F8" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="19" customFormat="1">
       <c r="A9" s="32">
         <v>8</v>
       </c>
@@ -1201,12 +1203,14 @@
       <c r="D9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="35">
+        <v>3</v>
+      </c>
       <c r="F9" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1219,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="18">
       <c r="A11" s="21"/>
       <c r="B11" s="14"/>
       <c r="C11" s="18"/>
@@ -1223,7 +1227,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="18">
       <c r="A12" s="10"/>
       <c r="B12" s="31"/>
       <c r="C12" s="23"/>
@@ -1231,7 +1235,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="18">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="22"/>
@@ -1352,7 +1356,7 @@
       <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
@@ -1360,8 +1364,8 @@
     <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="1" customFormat="1"/>
+    <row r="2" spans="1:38">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>20</v>
@@ -1407,7 +1411,7 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -1453,7 +1457,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1499,7 +1503,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1539,7 +1543,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1579,7 +1583,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1619,7 +1623,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1659,7 +1663,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1699,7 +1703,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1739,7 +1743,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1779,7 +1783,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1819,7 +1823,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1859,7 +1863,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1899,7 +1903,7 @@
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1939,7 +1943,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1979,7 +1983,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2019,7 +2023,7 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2059,7 +2063,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2099,7 +2103,7 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2139,7 +2143,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2179,7 +2183,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2219,7 +2223,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2259,7 +2263,7 @@
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2299,7 +2303,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2339,7 +2343,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2379,7 +2383,7 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2419,7 +2423,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2459,7 +2463,7 @@
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2499,7 +2503,7 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2539,7 +2543,7 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2579,7 +2583,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2619,7 +2623,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2659,7 +2663,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2699,7 +2703,7 @@
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2739,7 +2743,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2779,7 +2783,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2819,7 +2823,7 @@
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2859,7 +2863,7 @@
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2899,7 +2903,7 @@
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2939,7 +2943,7 @@
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2979,7 +2983,7 @@
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3019,7 +3023,7 @@
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3223,18 +3227,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3256,14 +3260,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DCE90AB-C0FE-41BA-92CE-E86C443C4CBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ABCF23C-177F-48BB-9CA6-65AE8594433C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3276,4 +3272,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DCE90AB-C0FE-41BA-92CE-E86C443C4CBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montaine\Desktop\Cours HES-SO\GitHub\HEVS_S8_GIS_Camping\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4B7347-D80D-4079-860A-DD7F5F60C2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3B164C-34D3-4181-A39D-82823F4A3C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:XFC13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -1093,7 +1093,9 @@
       <c r="D3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="30">
+        <v>3</v>
+      </c>
       <c r="F3" s="30" t="s">
         <v>30</v>
       </c>
@@ -1129,7 +1131,9 @@
       <c r="D5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="30">
+        <v>3</v>
+      </c>
       <c r="F5" s="30" t="s">
         <v>28</v>
       </c>
@@ -1147,7 +1151,9 @@
       <c r="D6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="30">
+        <v>3</v>
+      </c>
       <c r="F6" s="30" t="s">
         <v>28</v>
       </c>
@@ -1165,7 +1171,9 @@
       <c r="D7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="35">
+        <v>3</v>
+      </c>
       <c r="F7" s="30" t="s">
         <v>28</v>
       </c>
@@ -3227,18 +3235,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3260,6 +3268,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DCE90AB-C0FE-41BA-92CE-E86C443C4CBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ABCF23C-177F-48BB-9CA6-65AE8594433C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3272,12 +3288,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DCE90AB-C0FE-41BA-92CE-E86C443C4CBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>